--- a/design/Insert/Data Structure.xlsx
+++ b/design/Insert/Data Structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>isuru</t>
   </si>
@@ -322,6 +322,51 @@
   </si>
   <si>
     <t>speakers</t>
+  </si>
+  <si>
+    <t>Canon EOS Digital SLR</t>
+  </si>
+  <si>
+    <t>Canon EOS M</t>
+  </si>
+  <si>
+    <t>Canon PowerShot</t>
+  </si>
+  <si>
+    <t>Canon Camcorder</t>
+  </si>
+  <si>
+    <t>Nikon Digital SLR</t>
+  </si>
+  <si>
+    <t>Nikon 1 compact</t>
+  </si>
+  <si>
+    <t>Nikon CoolPix</t>
+  </si>
+  <si>
+    <t>Kodak PixPro</t>
+  </si>
+  <si>
+    <t>Kodak PixPro Action</t>
+  </si>
+  <si>
+    <t>Fujifilm X Series</t>
+  </si>
+  <si>
+    <t>Fujifilm Point</t>
+  </si>
+  <si>
+    <t>Fujifilm INSTAX</t>
+  </si>
+  <si>
+    <t>Sony Digital SLR</t>
+  </si>
+  <si>
+    <t>Sony Alpha</t>
+  </si>
+  <si>
+    <t>Sony Cyber-shot</t>
   </si>
 </sst>
 </file>
@@ -457,16 +502,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,7 +816,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -789,13 +834,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -836,11 +881,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -881,11 +926,11 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -926,11 +971,11 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -963,11 +1008,11 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1000,11 +1045,11 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1037,11 +1082,11 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1078,11 +1123,11 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1115,11 +1160,11 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1156,101 +1201,239 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="E10" s="2">
+        <v>1550</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="I10" s="2">
+        <v>18500</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="K10" s="2">
+        <v>22700</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="2">
+        <v>2500</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="2">
+        <v>54000</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="I11" s="2">
+        <v>5700</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="K11" s="2">
+        <v>5700</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="2">
+        <v>1300</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="I12" s="2">
+        <v>7500</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="K12" s="2">
+        <v>2500</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="D13" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="14">
+        <v>60000</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="14">
+        <v>34000</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="14">
+        <v>43600</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="14">
+        <v>46800</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="14">
+        <v>26700</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="D14" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="14">
+        <v>76900</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="14">
+        <v>28900</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="I14" s="14">
+        <v>34900</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="14">
+        <v>23600</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="14">
+        <v>15600</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="D15" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="14">
+        <v>47670</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="14">
+        <v>34670</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15" s="14">
+        <v>23500</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="14">
+        <v>87000</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" s="14">
+        <v>37800</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D16" t="s">
@@ -1258,133 +1441,133 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="12"/>
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="12"/>
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="12"/>
       <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="13" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -1392,115 +1575,115 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="5" t="s">
         <v>49</v>
       </c>

--- a/design/Insert/Data Structure.xlsx
+++ b/design/Insert/Data Structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
   <si>
     <t>isuru</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Camera</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Camera Accessories</t>
   </si>
   <si>
@@ -367,6 +364,69 @@
   </si>
   <si>
     <t>Sony Cyber-shot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adapter Bracket</t>
+  </si>
+  <si>
+    <t>Screen Sticker</t>
+  </si>
+  <si>
+    <t>Lens cleaner</t>
+  </si>
+  <si>
+    <t>SD Card Reader</t>
+  </si>
+  <si>
+    <t>Silica Desicent</t>
+  </si>
+  <si>
+    <t>Flash Diffuser</t>
+  </si>
+  <si>
+    <t>Lens Cap</t>
+  </si>
+  <si>
+    <t>IR Remote</t>
+  </si>
+  <si>
+    <t>Memory Card Holder</t>
+  </si>
+  <si>
+    <t>Lens Hood</t>
+  </si>
+  <si>
+    <t>Toshiba 40"</t>
+  </si>
+  <si>
+    <t>LG 79"</t>
+  </si>
+  <si>
+    <t>LG 32"</t>
+  </si>
+  <si>
+    <t>LG FHD 42"</t>
+  </si>
+  <si>
+    <t>LG 43"</t>
+  </si>
+  <si>
+    <t>LG 49"</t>
+  </si>
+  <si>
+    <t>LG 55" Super Ultra HD</t>
+  </si>
+  <si>
+    <t>LG Ultra HD</t>
+  </si>
+  <si>
+    <t>LG 55" OLED</t>
+  </si>
+  <si>
+    <t>Haier 24"</t>
+  </si>
+  <si>
+    <t>Toshiba 55"</t>
   </si>
 </sst>
 </file>
@@ -486,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -505,13 +565,15 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -834,8 +896,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>61</v>
+      <c r="A1" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -844,44 +906,44 @@
         <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="2">
         <v>80000</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2">
         <v>60000</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I1" s="2">
         <v>45000</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="2">
         <v>55000</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M1" s="2">
         <v>65000</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O1" s="2">
         <v>35000</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -889,44 +951,44 @@
         <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="2">
         <v>79000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>30000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2">
         <v>15000</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="2">
         <v>25000</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="2">
         <v>45000</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O2" s="2">
         <v>24000</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
@@ -934,44 +996,44 @@
         <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2">
         <v>82000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>40000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2">
         <v>15000</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K3" s="2">
         <v>45000</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M3" s="2">
         <v>30000</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O3" s="2">
         <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -979,25 +1041,25 @@
         <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="4">
         <v>1500</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4">
         <v>400</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4" s="4">
         <v>4500</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K4" s="4">
         <v>450</v>
@@ -1008,7 +1070,7 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1016,25 +1078,25 @@
         <v>51</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4">
         <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="4">
         <v>5000</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I5" s="4">
         <v>5000</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" s="4">
         <v>500</v>
@@ -1045,7 +1107,7 @@
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1053,25 +1115,25 @@
         <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4">
         <v>400</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="4">
         <v>200</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" s="4">
         <v>4800</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="4">
         <v>200</v>
@@ -1082,7 +1144,7 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
@@ -1090,31 +1152,31 @@
         <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3">
         <v>78000</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3">
         <v>85000</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I7" s="3">
         <v>80000</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K7" s="3">
         <v>70000</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M7" s="3">
         <v>95000</v>
@@ -1123,7 +1185,7 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
@@ -1131,25 +1193,25 @@
         <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="3">
         <v>90000</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="3">
         <v>94000</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="3">
         <v>98000</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="3">
         <v>87000</v>
@@ -1160,7 +1222,7 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
@@ -1168,31 +1230,31 @@
         <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="3">
         <v>50000</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="3">
         <v>67000</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="3">
         <v>80000</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K9" s="3">
         <v>44000</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M9" s="3">
         <v>68000</v>
@@ -1201,7 +1263,7 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
@@ -1209,25 +1271,25 @@
         <v>53</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2">
         <v>1550</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="2">
         <v>1000</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I10" s="2">
         <v>18500</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="2">
         <v>22700</v>
@@ -1238,7 +1300,7 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1246,25 +1308,25 @@
         <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2">
         <v>2500</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2">
         <v>54000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2">
         <v>5700</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11" s="2">
         <v>5700</v>
@@ -1275,7 +1337,7 @@
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
@@ -1283,25 +1345,25 @@
         <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="2">
         <v>1500</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2">
         <v>1300</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2">
         <v>7500</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" s="2">
         <v>2500</v>
@@ -1312,378 +1374,517 @@
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="12">
+        <v>60000</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="14">
-        <v>60000</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="G13" s="12">
+        <v>34000</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="14">
-        <v>34000</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="12">
+        <v>43600</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I13" s="14">
-        <v>43600</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="K13" s="14">
+      <c r="K13" s="12">
         <v>46800</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="14">
+      <c r="L13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="12">
         <v>26700</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="12">
+        <v>76900</v>
+      </c>
+      <c r="F14" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="14">
-        <v>76900</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="12">
+        <v>28900</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="14">
-        <v>28900</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="I14" s="12">
+        <v>34900</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="14">
-        <v>34900</v>
-      </c>
-      <c r="J14" s="14" t="s">
+      <c r="K14" s="12">
+        <v>23600</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="K14" s="14">
-        <v>23600</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="14">
+      <c r="M14" s="12">
         <v>15600</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="12">
+        <v>47670</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="14">
-        <v>47670</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="G15" s="12">
+        <v>34670</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="14">
-        <v>34670</v>
-      </c>
-      <c r="H15" s="14" t="s">
+      <c r="I15" s="12">
+        <v>23500</v>
+      </c>
+      <c r="J15" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="14">
-        <v>23500</v>
-      </c>
-      <c r="J15" s="14" t="s">
+      <c r="K15" s="12">
+        <v>87000</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="K15" s="14">
-        <v>87000</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" s="14">
+      <c r="M15" s="12">
         <v>37800</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="D16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="15">
+        <v>500</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1500</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="15">
+        <v>750</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="15">
+        <v>2200</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="15">
+        <v>450</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" s="15">
+        <v>760</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="15">
+        <v>250</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1200</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="15">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="15">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="D19" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="16">
+        <v>25600</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="16">
+        <v>143000</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="16">
+        <v>40000</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K19" s="16">
+        <v>42000</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M19" s="2">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
       <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="16">
+        <v>56000</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G20" s="16">
+        <v>102000</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I20" s="16">
+        <v>79000</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="16">
+        <v>30000</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="16">
+        <v>76500</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G21" s="16">
+        <v>49000</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I21" s="16">
+        <v>27000</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
       <c r="B23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
       <c r="B25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
       <c r="B28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
       <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
       <c r="B30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
       <c r="B32" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="14"/>
       <c r="B50" s="5" t="s">
         <v>49</v>
       </c>
